--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H2">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I2">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J2">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>380.7505523677119</v>
+        <v>399.6075863865311</v>
       </c>
       <c r="R2">
-        <v>380.7505523677119</v>
+        <v>3596.46827747878</v>
       </c>
       <c r="S2">
-        <v>0.1504919150488108</v>
+        <v>0.1427352020341061</v>
       </c>
       <c r="T2">
-        <v>0.1504919150488108</v>
+        <v>0.1427352020341061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H3">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I3">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J3">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>405.2867133430207</v>
+        <v>421.201198899745</v>
       </c>
       <c r="R3">
-        <v>405.2867133430207</v>
+        <v>3790.810790097705</v>
       </c>
       <c r="S3">
-        <v>0.1601898493791964</v>
+        <v>0.1504481903499448</v>
       </c>
       <c r="T3">
-        <v>0.1601898493791964</v>
+        <v>0.1504481903499448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H4">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I4">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J4">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>261.3389954726554</v>
+        <v>272.1335042709127</v>
       </c>
       <c r="R4">
-        <v>261.3389954726554</v>
+        <v>2449.201538438215</v>
       </c>
       <c r="S4">
-        <v>0.1032944158873598</v>
+        <v>0.09720293616945017</v>
       </c>
       <c r="T4">
-        <v>0.1032944158873598</v>
+        <v>0.09720293616945018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H5">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I5">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J5">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>202.6366302695616</v>
+        <v>212.2573333071094</v>
       </c>
       <c r="R5">
-        <v>202.6366302695616</v>
+        <v>1910.315999763985</v>
       </c>
       <c r="S5">
-        <v>0.08009226607464844</v>
+        <v>0.07581586132227652</v>
       </c>
       <c r="T5">
-        <v>0.08009226607464844</v>
+        <v>0.07581586132227652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.34873895718588</v>
+        <v>2.440918333333333</v>
       </c>
       <c r="H6">
-        <v>2.34873895718588</v>
+        <v>7.322755</v>
       </c>
       <c r="I6">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="J6">
-        <v>0.5470172902788237</v>
+        <v>0.5182826554654038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>133.9626886358427</v>
+        <v>145.8067025903278</v>
       </c>
       <c r="R6">
-        <v>133.9626886358427</v>
+        <v>1312.26032331295</v>
       </c>
       <c r="S6">
-        <v>0.05294884388880834</v>
+        <v>0.05208046558962608</v>
       </c>
       <c r="T6">
-        <v>0.05294884388880834</v>
+        <v>0.05208046558962608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H7">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I7">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J7">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>68.07783456115486</v>
+        <v>99.22965425685778</v>
       </c>
       <c r="R7">
-        <v>68.07783456115486</v>
+        <v>893.0668883117199</v>
       </c>
       <c r="S7">
-        <v>0.02690781045956301</v>
+        <v>0.03544368332994311</v>
       </c>
       <c r="T7">
-        <v>0.02690781045956301</v>
+        <v>0.03544368332994312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H8">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I8">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J8">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>72.46487667378132</v>
+        <v>104.59173139663</v>
       </c>
       <c r="R8">
-        <v>72.46487667378132</v>
+        <v>941.3255825696699</v>
       </c>
       <c r="S8">
-        <v>0.02864179184139783</v>
+        <v>0.03735895518648774</v>
       </c>
       <c r="T8">
-        <v>0.02864179184139783</v>
+        <v>0.03735895518648775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H9">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I9">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J9">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>46.72716240995416</v>
+        <v>67.57557779293444</v>
       </c>
       <c r="R9">
-        <v>46.72716240995416</v>
+        <v>608.18020013641</v>
       </c>
       <c r="S9">
-        <v>0.01846894275567473</v>
+        <v>0.02413721380033103</v>
       </c>
       <c r="T9">
-        <v>0.01846894275567473</v>
+        <v>0.02413721380033104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H10">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I10">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J10">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>36.23123566265627</v>
+        <v>52.70726211182112</v>
       </c>
       <c r="R10">
-        <v>36.23123566265627</v>
+        <v>474.36535900639</v>
       </c>
       <c r="S10">
-        <v>0.01432042056288896</v>
+        <v>0.01882642362779964</v>
       </c>
       <c r="T10">
-        <v>0.01432042056288896</v>
+        <v>0.01882642362779964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.41995227888788</v>
+        <v>0.6061233333333333</v>
       </c>
       <c r="H11">
-        <v>0.41995227888788</v>
+        <v>1.81837</v>
       </c>
       <c r="I11">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="J11">
-        <v>0.09780616825928723</v>
+        <v>0.1286987796558298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>23.95240058774968</v>
+        <v>36.20639141814444</v>
       </c>
       <c r="R11">
-        <v>23.95240058774968</v>
+        <v>325.8575227633</v>
       </c>
       <c r="S11">
-        <v>0.009467202639762702</v>
+        <v>0.01293250371126828</v>
       </c>
       <c r="T11">
-        <v>0.009467202639762702</v>
+        <v>0.01293250371126828</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H12">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I12">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J12">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>247.2200911249751</v>
+        <v>272.1852548474053</v>
       </c>
       <c r="R12">
-        <v>247.2200911249751</v>
+        <v>2449.667293626648</v>
       </c>
       <c r="S12">
-        <v>0.09771390933139983</v>
+        <v>0.09722142087605404</v>
       </c>
       <c r="T12">
-        <v>0.09771390933139983</v>
+        <v>0.09722142087605404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H13">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I13">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J13">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>263.1513403758357</v>
+        <v>286.893341293242</v>
       </c>
       <c r="R13">
-        <v>263.1513403758357</v>
+        <v>2582.040071639178</v>
       </c>
       <c r="S13">
-        <v>0.1040107464442362</v>
+        <v>0.1024749790213464</v>
       </c>
       <c r="T13">
-        <v>0.1040107464442362</v>
+        <v>0.1024749790213464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H14">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I14">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J14">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>169.6865569163076</v>
+        <v>185.3586611862993</v>
       </c>
       <c r="R14">
-        <v>169.6865569163076</v>
+        <v>1668.227950676694</v>
       </c>
       <c r="S14">
-        <v>0.06706872714845648</v>
+        <v>0.06620796715207108</v>
       </c>
       <c r="T14">
-        <v>0.06706872714845648</v>
+        <v>0.0662079671520711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H15">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I15">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J15">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>131.5713027570832</v>
+        <v>144.5751240156473</v>
       </c>
       <c r="R15">
-        <v>131.5713027570832</v>
+        <v>1301.176116140826</v>
       </c>
       <c r="S15">
-        <v>0.05200364699210724</v>
+        <v>0.05164055998556216</v>
       </c>
       <c r="T15">
-        <v>0.05200364699210724</v>
+        <v>0.05164055998556216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.52502854011227</v>
+        <v>1.662586</v>
       </c>
       <c r="H16">
-        <v>1.52502854011227</v>
+        <v>4.987757999999999</v>
       </c>
       <c r="I16">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="J16">
-        <v>0.3551765414618889</v>
+        <v>0.3530185648787664</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>86.98153656233055</v>
+        <v>99.31351619691331</v>
       </c>
       <c r="R16">
-        <v>86.98153656233055</v>
+        <v>893.8216457722198</v>
       </c>
       <c r="S16">
-        <v>0.03437951154568916</v>
+        <v>0.03547363784373261</v>
       </c>
       <c r="T16">
-        <v>0.03437951154568916</v>
+        <v>0.03547363784373261</v>
       </c>
     </row>
   </sheetData>
